--- a/biology/Microbiologie/Bactérie_chimiotrophe/Bactérie_chimiotrophe.xlsx
+++ b/biology/Microbiologie/Bactérie_chimiotrophe/Bactérie_chimiotrophe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_chimiotrophe</t>
+          <t>Bactérie_chimiotrophe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les bactéries chimiotrophes sont des organismes unicellulaires (essentiellement procaryotes) qui utilisent l'énergie de l'oxydation de composés chimiques comme source initiale d'énergie chimique.
 On les distingue des bactéries phototrophes, lesquelles utilisent l'énergie lumineuse.
